--- a/游戏相关/游戏笔记/鼠托邦/鼠托邦成本计算工具.xlsx
+++ b/游戏相关/游戏笔记/鼠托邦/鼠托邦成本计算工具.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaoan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaoan\Documents\obsidian\NoteBook\游戏相关\游戏笔记\鼠托邦\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B171DD0A-E4A4-48EC-80F1-5D3429A67F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C7015F-2530-4F2F-93B8-916F9E5C91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本说明" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="生产类别" sheetId="10" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">出口贸易表!$A$1:$K$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">出口贸易表!$A$1:$K$191</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">进口贸易表!$A$1:$I$120</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">生产成本!$A$1:$Z$316</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">生产选项!$A$1:$I$105</definedName>
@@ -408,7 +408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4655" uniqueCount="599">
   <si>
     <t>版本号</t>
   </si>
@@ -2306,6 +2306,14 @@
 2.增加了仓储和贸易两种获得方式，仓储指消耗仓库内的物料，不消耗人力，贸易指直接从别的城邦购买，有进口经济成本
 3.增加了进口贸易表和出口贸易表以及汇率相关设定，需要先设置汇率，然后填写进口贸易和出口贸易中的价格，可以得出进口成本和出口利润
 4.采集和狩猎物品的获取方式采用了@十里天X 的估算方式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本市</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2426,7 +2434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2521,11 +2529,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2593,6 +2614,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2923,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3043,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6305,11 +6329,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N258" sqref="N257:N258"/>
+      <selection pane="bottomLeft" activeCell="D312" sqref="D312:D313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6417,7 +6442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <f t="shared" ref="A2:A12" si="0">ROW()-1</f>
         <v>1</v>
@@ -6442,36 +6467,36 @@
       </c>
       <c r="H2" s="5">
         <f t="shared" ref="H2:H65" si="1">F2+O2+T2+Y2</f>
-        <v>1940</v>
+        <v>1800</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I65" si="2">IF(C2="贸易",G2,P2+U2+Z2)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" ref="J2:J65" si="3">H2/E2</f>
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" ref="K2:K65" si="4">I2/E2</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>564</v>
       </c>
       <c r="N2" s="1">
         <v>2</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" ref="O2:O33" si="5">VLOOKUP(IF(M2="无",L2,L2&amp;"("&amp;M2&amp;")"),D:J,7,0)*N2</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P33" si="6">VLOOKUP(IF(M2="无",L2,L2&amp;"("&amp;M2&amp;")"),D:K,8,0)*N2</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>30</v>
@@ -6508,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6599,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6690,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6781,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6872,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6963,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7054,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7145,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7236,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7327,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7418,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <f t="shared" ref="A13:A43" si="11">ROW()-1</f>
         <v>12</v>
@@ -7509,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <f t="shared" si="11"/>
         <v>13</v>
@@ -7600,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <f t="shared" si="11"/>
         <v>14</v>
@@ -7691,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <f t="shared" si="11"/>
         <v>15</v>
@@ -7782,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <f t="shared" si="11"/>
         <v>16</v>
@@ -7873,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <f t="shared" si="11"/>
         <v>17</v>
@@ -7964,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <f t="shared" si="11"/>
         <v>18</v>
@@ -8055,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <f t="shared" si="11"/>
         <v>19</v>
@@ -8146,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <f t="shared" si="11"/>
         <v>20</v>
@@ -8237,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <f t="shared" si="11"/>
         <v>21</v>
@@ -8328,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <f t="shared" si="11"/>
         <v>22</v>
@@ -8419,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <f t="shared" si="11"/>
         <v>23</v>
@@ -8510,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <f t="shared" si="11"/>
         <v>24</v>
@@ -8601,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <f t="shared" si="11"/>
         <v>25</v>
@@ -8692,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <f t="shared" si="11"/>
         <v>26</v>
@@ -8783,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <f t="shared" si="11"/>
         <v>27</v>
@@ -8874,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <f t="shared" si="11"/>
         <v>28</v>
@@ -8965,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <f t="shared" si="11"/>
         <v>29</v>
@@ -9056,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <f t="shared" si="11"/>
         <v>30</v>
@@ -9147,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <f t="shared" si="11"/>
         <v>31</v>
@@ -9238,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <f t="shared" si="11"/>
         <v>32</v>
@@ -9329,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <f t="shared" si="11"/>
         <v>33</v>
@@ -9420,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <f t="shared" si="11"/>
         <v>34</v>
@@ -9511,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <f t="shared" si="11"/>
         <v>35</v>
@@ -9602,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <f t="shared" si="11"/>
         <v>36</v>
@@ -9693,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <f t="shared" si="11"/>
         <v>37</v>
@@ -9784,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <f t="shared" si="11"/>
         <v>38</v>
@@ -9875,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <f t="shared" si="11"/>
         <v>39</v>
@@ -9966,7 +9991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <f t="shared" si="11"/>
         <v>40</v>
@@ -10057,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <f t="shared" si="11"/>
         <v>41</v>
@@ -10148,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <f t="shared" si="11"/>
         <v>42</v>
@@ -10239,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <f t="shared" ref="A44:A75" si="18">ROW()-1</f>
         <v>43</v>
@@ -10330,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <f t="shared" si="18"/>
         <v>44</v>
@@ -10421,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <f t="shared" si="18"/>
         <v>45</v>
@@ -10512,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <f t="shared" si="18"/>
         <v>46</v>
@@ -10603,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <f t="shared" si="18"/>
         <v>47</v>
@@ -10694,7 +10719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <f t="shared" si="18"/>
         <v>48</v>
@@ -10785,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <f t="shared" si="18"/>
         <v>49</v>
@@ -10876,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <f t="shared" si="18"/>
         <v>50</v>
@@ -10967,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <f t="shared" si="18"/>
         <v>51</v>
@@ -11058,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <f t="shared" si="18"/>
         <v>52</v>
@@ -11149,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <f t="shared" si="18"/>
         <v>53</v>
@@ -11240,7 +11265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <f t="shared" si="18"/>
         <v>54</v>
@@ -11331,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <f t="shared" si="18"/>
         <v>55</v>
@@ -11422,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <f t="shared" si="18"/>
         <v>56</v>
@@ -11513,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <f t="shared" si="18"/>
         <v>57</v>
@@ -11604,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <f t="shared" si="18"/>
         <v>58</v>
@@ -11695,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <f t="shared" si="18"/>
         <v>59</v>
@@ -11786,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <f t="shared" si="18"/>
         <v>60</v>
@@ -11877,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <f t="shared" si="18"/>
         <v>61</v>
@@ -11968,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <f t="shared" si="18"/>
         <v>62</v>
@@ -12059,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <f t="shared" si="18"/>
         <v>63</v>
@@ -12150,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <f t="shared" si="18"/>
         <v>64</v>
@@ -12241,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <f t="shared" si="18"/>
         <v>65</v>
@@ -12332,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <f t="shared" si="18"/>
         <v>66</v>
@@ -12423,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <f t="shared" si="18"/>
         <v>67</v>
@@ -12514,7 +12539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <f t="shared" si="18"/>
         <v>68</v>
@@ -12605,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <f t="shared" si="18"/>
         <v>69</v>
@@ -12696,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <f t="shared" si="18"/>
         <v>70</v>
@@ -12787,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <f t="shared" si="18"/>
         <v>71</v>
@@ -12878,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <f t="shared" si="18"/>
         <v>72</v>
@@ -12969,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <f t="shared" si="18"/>
         <v>73</v>
@@ -13060,7 +13085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <f t="shared" si="18"/>
         <v>74</v>
@@ -13151,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <f t="shared" ref="A76:A110" si="29">ROW()-1</f>
         <v>75</v>
@@ -13242,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <f t="shared" si="29"/>
         <v>76</v>
@@ -13333,7 +13358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <f t="shared" si="29"/>
         <v>77</v>
@@ -13424,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <f t="shared" si="29"/>
         <v>78</v>
@@ -13515,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <f t="shared" si="29"/>
         <v>79</v>
@@ -13606,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <f t="shared" si="29"/>
         <v>80</v>
@@ -13697,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <f t="shared" si="29"/>
         <v>81</v>
@@ -13788,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <f t="shared" si="29"/>
         <v>82</v>
@@ -13879,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <f t="shared" si="29"/>
         <v>83</v>
@@ -13970,7 +13995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <f t="shared" si="29"/>
         <v>84</v>
@@ -14061,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <f t="shared" si="29"/>
         <v>85</v>
@@ -14152,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <f t="shared" si="29"/>
         <v>86</v>
@@ -14243,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <f t="shared" si="29"/>
         <v>87</v>
@@ -14334,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <f t="shared" si="29"/>
         <v>88</v>
@@ -14425,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <f t="shared" si="29"/>
         <v>89</v>
@@ -14516,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <f t="shared" si="29"/>
         <v>90</v>
@@ -14607,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <f t="shared" si="29"/>
         <v>91</v>
@@ -14698,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <f t="shared" si="29"/>
         <v>92</v>
@@ -14789,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <f t="shared" si="29"/>
         <v>93</v>
@@ -14880,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <f t="shared" si="29"/>
         <v>94</v>
@@ -14971,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <f t="shared" si="29"/>
         <v>95</v>
@@ -15062,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <f t="shared" si="29"/>
         <v>96</v>
@@ -15155,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <f t="shared" si="29"/>
         <v>97</v>
@@ -15246,7 +15271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <f t="shared" si="29"/>
         <v>98</v>
@@ -15337,7 +15362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <f t="shared" si="29"/>
         <v>99</v>
@@ -15428,7 +15453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <f t="shared" si="29"/>
         <v>100</v>
@@ -15519,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <f t="shared" si="29"/>
         <v>101</v>
@@ -15612,7 +15637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <f t="shared" si="29"/>
         <v>102</v>
@@ -15703,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <f t="shared" si="29"/>
         <v>103</v>
@@ -15795,7 +15820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <f t="shared" si="29"/>
         <v>104</v>
@@ -15886,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <f t="shared" si="29"/>
         <v>105</v>
@@ -15977,7 +16002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <f t="shared" si="29"/>
         <v>106</v>
@@ -16069,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <f t="shared" si="29"/>
         <v>107</v>
@@ -16162,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <f t="shared" si="29"/>
         <v>108</v>
@@ -16255,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <f t="shared" si="29"/>
         <v>109</v>
@@ -16346,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <f t="shared" ref="A111:A134" si="36">ROW()-1</f>
         <v>110</v>
@@ -16437,7 +16462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <f t="shared" si="36"/>
         <v>111</v>
@@ -16528,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <f t="shared" si="36"/>
         <v>112</v>
@@ -16620,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <f t="shared" si="36"/>
         <v>113</v>
@@ -16713,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <f t="shared" si="36"/>
         <v>114</v>
@@ -16806,7 +16831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <f t="shared" si="36"/>
         <v>115</v>
@@ -16898,7 +16923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <f t="shared" si="36"/>
         <v>116</v>
@@ -16989,7 +17014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <f t="shared" si="36"/>
         <v>117</v>
@@ -17081,7 +17106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <f t="shared" si="36"/>
         <v>118</v>
@@ -17173,7 +17198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <f t="shared" si="36"/>
         <v>119</v>
@@ -17265,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <f t="shared" si="36"/>
         <v>120</v>
@@ -17356,7 +17381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <f t="shared" si="36"/>
         <v>121</v>
@@ -17449,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <f t="shared" si="36"/>
         <v>122</v>
@@ -17541,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <f t="shared" si="36"/>
         <v>123</v>
@@ -17634,7 +17659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <f t="shared" si="36"/>
         <v>124</v>
@@ -17727,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <f t="shared" si="36"/>
         <v>125</v>
@@ -17820,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <f t="shared" si="36"/>
         <v>126</v>
@@ -17912,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10">
         <f t="shared" si="36"/>
         <v>127</v>
@@ -18004,7 +18029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <f t="shared" si="36"/>
         <v>128</v>
@@ -18095,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10">
         <f t="shared" si="36"/>
         <v>129</v>
@@ -18187,7 +18212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
         <f t="shared" si="36"/>
         <v>130</v>
@@ -18279,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10">
         <f t="shared" si="36"/>
         <v>131</v>
@@ -18371,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <f t="shared" si="36"/>
         <v>132</v>
@@ -18463,7 +18488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10">
         <f t="shared" si="36"/>
         <v>133</v>
@@ -18554,7 +18579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10">
         <f t="shared" ref="A135:A149" si="47">ROW()-1</f>
         <v>134</v>
@@ -18646,7 +18671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
         <f t="shared" si="47"/>
         <v>135</v>
@@ -18737,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10">
         <f t="shared" si="47"/>
         <v>136</v>
@@ -18828,7 +18853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10">
         <f t="shared" si="47"/>
         <v>137</v>
@@ -18919,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10">
         <f t="shared" si="47"/>
         <v>138</v>
@@ -19010,7 +19035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10">
         <f t="shared" si="47"/>
         <v>139</v>
@@ -19101,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10">
         <f t="shared" si="47"/>
         <v>140</v>
@@ -19193,7 +19218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10">
         <f t="shared" si="47"/>
         <v>141</v>
@@ -19284,7 +19309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10">
         <f t="shared" si="47"/>
         <v>142</v>
@@ -19375,7 +19400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10">
         <f t="shared" si="47"/>
         <v>143</v>
@@ -19467,7 +19492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10">
         <f t="shared" si="47"/>
         <v>144</v>
@@ -19560,7 +19585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10">
         <f t="shared" si="47"/>
         <v>145</v>
@@ -19652,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
         <f t="shared" si="47"/>
         <v>146</v>
@@ -19744,7 +19769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10">
         <f t="shared" si="47"/>
         <v>147</v>
@@ -19835,7 +19860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <f t="shared" si="47"/>
         <v>148</v>
@@ -19927,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <f t="shared" ref="A150:A161" si="48">ROW()-1</f>
         <v>149</v>
@@ -20019,7 +20044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <f t="shared" si="48"/>
         <v>150</v>
@@ -20110,7 +20135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <f t="shared" si="48"/>
         <v>151</v>
@@ -20202,7 +20227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <f t="shared" si="48"/>
         <v>152</v>
@@ -20294,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10">
         <f t="shared" si="48"/>
         <v>153</v>
@@ -20386,7 +20411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10">
         <f t="shared" si="48"/>
         <v>154</v>
@@ -20477,7 +20502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10">
         <f t="shared" si="48"/>
         <v>155</v>
@@ -20569,7 +20594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10">
         <f t="shared" si="48"/>
         <v>156</v>
@@ -20661,7 +20686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10">
         <f t="shared" si="48"/>
         <v>157</v>
@@ -20753,7 +20778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10">
         <f t="shared" si="48"/>
         <v>158</v>
@@ -20845,7 +20870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10">
         <f t="shared" si="48"/>
         <v>159</v>
@@ -20937,7 +20962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
         <f t="shared" si="48"/>
         <v>160</v>
@@ -21030,7 +21055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10">
         <f t="shared" ref="A162:A171" si="49">ROW()-1</f>
         <v>161</v>
@@ -21080,7 +21105,7 @@
         <v>2</v>
       </c>
       <c r="O162" s="1">
-        <f t="shared" ref="O162:O193" si="50">VLOOKUP(IF(M162="无",L162,L162&amp;"("&amp;M162&amp;")"),D:J,7,0)*N162</f>
+        <f t="shared" ref="O162:O174" si="50">VLOOKUP(IF(M162="无",L162,L162&amp;"("&amp;M162&amp;")"),D:J,7,0)*N162</f>
         <v>400</v>
       </c>
       <c r="P162" s="1">
@@ -21098,7 +21123,7 @@
         <v>2</v>
       </c>
       <c r="T162" s="1">
-        <f t="shared" ref="T162:T193" si="52">VLOOKUP(IF(R162="无",Q162,Q162&amp;"("&amp;R162&amp;")"),D:J,7,0)*S162</f>
+        <f t="shared" ref="T162:T174" si="52">VLOOKUP(IF(R162="无",Q162,Q162&amp;"("&amp;R162&amp;")"),D:J,7,0)*S162</f>
         <v>400</v>
       </c>
       <c r="U162" s="1">
@@ -21115,7 +21140,7 @@
         <v>0</v>
       </c>
       <c r="Y162" s="1">
-        <f t="shared" ref="Y162:Y193" si="54">VLOOKUP(IF(W162="无",V162,V162&amp;"("&amp;W162&amp;")"),D:J,7,0)*X162</f>
+        <f t="shared" ref="Y162:Y174" si="54">VLOOKUP(IF(W162="无",V162,V162&amp;"("&amp;W162&amp;")"),D:J,7,0)*X162</f>
         <v>0</v>
       </c>
       <c r="Z162" s="1">
@@ -21123,7 +21148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10">
         <f t="shared" si="49"/>
         <v>162</v>
@@ -21216,7 +21241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10">
         <f t="shared" si="49"/>
         <v>163</v>
@@ -21308,7 +21333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10">
         <f t="shared" si="49"/>
         <v>164</v>
@@ -21400,7 +21425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10">
         <f t="shared" si="49"/>
         <v>165</v>
@@ -21493,7 +21518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10">
         <f t="shared" si="49"/>
         <v>166</v>
@@ -21586,7 +21611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
         <f t="shared" si="49"/>
         <v>167</v>
@@ -21679,7 +21704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
         <f t="shared" si="49"/>
         <v>168</v>
@@ -21772,7 +21797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
         <f t="shared" si="49"/>
         <v>169</v>
@@ -21863,7 +21888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
         <f t="shared" si="49"/>
         <v>170</v>
@@ -21954,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
         <f t="shared" ref="A172:A181" si="56">ROW()-1</f>
         <v>171</v>
@@ -22045,7 +22070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10">
         <f t="shared" si="56"/>
         <v>172</v>
@@ -22136,7 +22161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
         <f t="shared" si="56"/>
         <v>173</v>
@@ -22227,7 +22252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
         <f t="shared" si="56"/>
         <v>174</v>
@@ -22282,7 +22307,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10">
         <f t="shared" si="56"/>
         <v>175</v>
@@ -22373,7 +22398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10">
         <f t="shared" si="56"/>
         <v>176</v>
@@ -22466,7 +22491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
         <f t="shared" si="56"/>
         <v>177</v>
@@ -22557,7 +22582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <f t="shared" si="56"/>
         <v>178</v>
@@ -22648,7 +22673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
         <f t="shared" si="56"/>
         <v>179</v>
@@ -22740,7 +22765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10">
         <f t="shared" si="56"/>
         <v>180</v>
@@ -22831,7 +22856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10">
         <f t="shared" ref="A182:A191" si="63">ROW()-1</f>
         <v>181</v>
@@ -22924,7 +22949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
         <f t="shared" si="63"/>
         <v>182</v>
@@ -23015,7 +23040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10">
         <f t="shared" si="63"/>
         <v>183</v>
@@ -23106,7 +23131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
         <f t="shared" si="63"/>
         <v>184</v>
@@ -23199,7 +23224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <f t="shared" si="63"/>
         <v>185</v>
@@ -23292,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <f t="shared" si="63"/>
         <v>186</v>
@@ -23385,7 +23410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
         <f t="shared" si="63"/>
         <v>187</v>
@@ -23477,7 +23502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
         <f t="shared" si="63"/>
         <v>188</v>
@@ -23568,7 +23593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10">
         <f t="shared" si="63"/>
         <v>189</v>
@@ -23659,7 +23684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10">
         <f t="shared" si="63"/>
         <v>190</v>
@@ -23750,7 +23775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10">
         <f t="shared" ref="A192:A201" si="64">ROW()-1</f>
         <v>191</v>
@@ -23841,7 +23866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10">
         <f t="shared" si="64"/>
         <v>192</v>
@@ -23932,7 +23957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10">
         <f t="shared" si="64"/>
         <v>193</v>
@@ -24023,7 +24048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10">
         <f t="shared" si="64"/>
         <v>194</v>
@@ -24114,7 +24139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10">
         <f t="shared" si="64"/>
         <v>195</v>
@@ -24205,7 +24230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10">
         <f t="shared" si="64"/>
         <v>196</v>
@@ -24296,7 +24321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10">
         <f t="shared" si="64"/>
         <v>197</v>
@@ -24387,7 +24412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10">
         <f t="shared" si="64"/>
         <v>198</v>
@@ -24478,7 +24503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10">
         <f t="shared" si="64"/>
         <v>199</v>
@@ -24569,7 +24594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10">
         <f t="shared" si="64"/>
         <v>200</v>
@@ -24660,7 +24685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="10">
         <f t="shared" ref="A202:A211" si="69">ROW()-1</f>
         <v>201</v>
@@ -24751,7 +24776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10">
         <f t="shared" si="69"/>
         <v>202</v>
@@ -24842,7 +24867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="10">
         <f t="shared" si="69"/>
         <v>203</v>
@@ -24933,7 +24958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10">
         <f t="shared" si="69"/>
         <v>204</v>
@@ -25024,7 +25049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10">
         <f t="shared" si="69"/>
         <v>205</v>
@@ -25115,7 +25140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="10">
         <f t="shared" si="69"/>
         <v>206</v>
@@ -25206,7 +25231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10">
         <f t="shared" si="69"/>
         <v>207</v>
@@ -25297,7 +25322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10">
         <f t="shared" si="69"/>
         <v>208</v>
@@ -25388,7 +25413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10">
         <f t="shared" si="69"/>
         <v>209</v>
@@ -25479,7 +25504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="10">
         <f t="shared" si="69"/>
         <v>210</v>
@@ -25570,7 +25595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="10">
         <f t="shared" ref="A212:A221" si="76">ROW()-1</f>
         <v>211</v>
@@ -25661,7 +25686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10">
         <f t="shared" si="76"/>
         <v>212</v>
@@ -25752,7 +25777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="10">
         <f t="shared" si="76"/>
         <v>213</v>
@@ -25843,7 +25868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="10">
         <f t="shared" si="76"/>
         <v>214</v>
@@ -25934,7 +25959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="10">
         <f t="shared" si="76"/>
         <v>215</v>
@@ -26025,7 +26050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="10">
         <f t="shared" si="76"/>
         <v>216</v>
@@ -26116,7 +26141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="10">
         <f t="shared" si="76"/>
         <v>217</v>
@@ -26207,7 +26232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="10">
         <f t="shared" si="76"/>
         <v>218</v>
@@ -26298,7 +26323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="10">
         <f t="shared" si="76"/>
         <v>219</v>
@@ -26389,7 +26414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="10">
         <f t="shared" si="76"/>
         <v>220</v>
@@ -26480,7 +26505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="10">
         <f t="shared" ref="A222:A231" si="77">ROW()-1</f>
         <v>221</v>
@@ -26571,7 +26596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10">
         <f t="shared" si="77"/>
         <v>222</v>
@@ -26662,7 +26687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="10">
         <f t="shared" si="77"/>
         <v>223</v>
@@ -26753,7 +26778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="10">
         <f t="shared" si="77"/>
         <v>224</v>
@@ -26844,7 +26869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="10">
         <f t="shared" si="77"/>
         <v>225</v>
@@ -26935,7 +26960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="10">
         <f t="shared" si="77"/>
         <v>226</v>
@@ -27026,7 +27051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="10">
         <f t="shared" si="77"/>
         <v>227</v>
@@ -27117,7 +27142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="10">
         <f t="shared" si="77"/>
         <v>228</v>
@@ -27208,7 +27233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="10">
         <f t="shared" si="77"/>
         <v>229</v>
@@ -27299,7 +27324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="10">
         <f t="shared" si="77"/>
         <v>230</v>
@@ -27390,7 +27415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="10">
         <f t="shared" ref="A232:A241" si="78">ROW()-1</f>
         <v>231</v>
@@ -27481,7 +27506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10">
         <f t="shared" si="78"/>
         <v>232</v>
@@ -27572,7 +27597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10">
         <f t="shared" si="78"/>
         <v>233</v>
@@ -27663,7 +27688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="10">
         <f t="shared" si="78"/>
         <v>234</v>
@@ -27754,7 +27779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10">
         <f t="shared" si="78"/>
         <v>235</v>
@@ -27845,7 +27870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10">
         <f t="shared" si="78"/>
         <v>236</v>
@@ -27936,7 +27961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10">
         <f t="shared" si="78"/>
         <v>237</v>
@@ -28027,7 +28052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="10">
         <f t="shared" si="78"/>
         <v>238</v>
@@ -28119,7 +28144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="10">
         <f t="shared" si="78"/>
         <v>239</v>
@@ -28212,7 +28237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="10">
         <f t="shared" si="78"/>
         <v>240</v>
@@ -28237,7 +28262,7 @@
       </c>
       <c r="H241" s="5">
         <f t="shared" si="65"/>
-        <v>3647.5</v>
+        <v>3355.8333333333335</v>
       </c>
       <c r="I241" s="5">
         <f t="shared" si="66"/>
@@ -28245,24 +28270,24 @@
       </c>
       <c r="J241" s="5">
         <f t="shared" si="67"/>
-        <v>607.91666666666663</v>
+        <v>559.30555555555554</v>
       </c>
       <c r="K241" s="5">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="L241" s="1" t="s">
-        <v>376</v>
+      <c r="L241" s="24" t="s">
+        <v>597</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="N241" s="1">
         <v>5</v>
       </c>
       <c r="O241" s="1">
         <f t="shared" si="79"/>
-        <v>1625</v>
+        <v>1333.3333333333335</v>
       </c>
       <c r="P241" s="1">
         <f t="shared" si="80"/>
@@ -28303,7 +28328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="10">
         <f t="shared" ref="A242:A250" si="85">ROW()-1</f>
         <v>241</v>
@@ -28394,7 +28419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10">
         <f t="shared" si="85"/>
         <v>242</v>
@@ -28487,7 +28512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="10">
         <f t="shared" si="85"/>
         <v>243</v>
@@ -28579,7 +28604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10">
         <f t="shared" si="85"/>
         <v>244</v>
@@ -28672,7 +28697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10">
         <f t="shared" si="85"/>
         <v>245</v>
@@ -28765,7 +28790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10">
         <f t="shared" si="85"/>
         <v>246</v>
@@ -28858,7 +28883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="10">
         <f t="shared" si="85"/>
         <v>247</v>
@@ -28950,7 +28975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="10">
         <f t="shared" si="85"/>
         <v>248</v>
@@ -29042,7 +29067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="10">
         <f t="shared" si="85"/>
         <v>249</v>
@@ -29134,7 +29159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="10">
         <f>ROW()-1</f>
         <v>250</v>
@@ -29226,7 +29251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10">
         <f t="shared" ref="A252:A261" si="86">ROW()-1</f>
         <v>251</v>
@@ -29318,7 +29343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10">
         <f t="shared" si="86"/>
         <v>252</v>
@@ -29410,7 +29435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="10">
         <f t="shared" si="86"/>
         <v>253</v>
@@ -29502,7 +29527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="10">
         <f t="shared" si="86"/>
         <v>254</v>
@@ -29594,7 +29619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="10">
         <f t="shared" si="86"/>
         <v>255</v>
@@ -29686,7 +29711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
         <f t="shared" si="86"/>
         <v>256</v>
@@ -29778,7 +29803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10">
         <f t="shared" si="86"/>
         <v>257</v>
@@ -29870,7 +29895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="10">
         <f t="shared" si="86"/>
         <v>258</v>
@@ -29962,7 +29987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="10">
         <f t="shared" si="86"/>
         <v>259</v>
@@ -30054,7 +30079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="10">
         <f t="shared" si="86"/>
         <v>260</v>
@@ -30146,7 +30171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="10">
         <f t="shared" ref="A262:A271" si="91">ROW()-1</f>
         <v>261</v>
@@ -30238,7 +30263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="10">
         <f t="shared" si="91"/>
         <v>262</v>
@@ -30330,7 +30355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10">
         <f t="shared" si="91"/>
         <v>263</v>
@@ -30422,7 +30447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="10">
         <f t="shared" si="91"/>
         <v>264</v>
@@ -30514,7 +30539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10">
         <f t="shared" si="91"/>
         <v>265</v>
@@ -30606,7 +30631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="10">
         <f t="shared" si="91"/>
         <v>266</v>
@@ -30698,7 +30723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="10">
         <f t="shared" si="91"/>
         <v>267</v>
@@ -30790,7 +30815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="10">
         <f t="shared" si="91"/>
         <v>268</v>
@@ -30882,7 +30907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="10">
         <f t="shared" si="91"/>
         <v>269</v>
@@ -30974,7 +30999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="10">
         <f t="shared" si="91"/>
         <v>270</v>
@@ -31066,7 +31091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="10">
         <f t="shared" ref="A272:A281" si="92">ROW()-1</f>
         <v>271</v>
@@ -31158,7 +31183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="10">
         <f t="shared" si="92"/>
         <v>272</v>
@@ -31250,7 +31275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="10">
         <f t="shared" si="92"/>
         <v>273</v>
@@ -31342,7 +31367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="10">
         <f t="shared" si="92"/>
         <v>274</v>
@@ -31434,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="10">
         <f t="shared" si="92"/>
         <v>275</v>
@@ -31526,7 +31551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="10">
         <f t="shared" si="92"/>
         <v>276</v>
@@ -31618,7 +31643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="10">
         <f t="shared" si="92"/>
         <v>277</v>
@@ -31710,7 +31735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="10">
         <f t="shared" si="92"/>
         <v>278</v>
@@ -31802,7 +31827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="10">
         <f t="shared" si="92"/>
         <v>279</v>
@@ -31894,7 +31919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="10">
         <f t="shared" si="92"/>
         <v>280</v>
@@ -31986,7 +32011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="10">
         <f t="shared" ref="A282:A291" si="99">ROW()-1</f>
         <v>281</v>
@@ -32078,7 +32103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="10">
         <f t="shared" si="99"/>
         <v>282</v>
@@ -32170,7 +32195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="10">
         <f t="shared" si="99"/>
         <v>283</v>
@@ -32190,25 +32215,25 @@
       <c r="F284" s="1">
         <v>0</v>
       </c>
-      <c r="G284" s="1" t="str">
+      <c r="G284" s="1">
         <f>IF(ISNUMBER(VLOOKUP(D284,进口贸易表!B:H,7,0)),VLOOKUP(D284,进口贸易表!B:H,7,0)/VLOOKUP(D284,进口贸易表!B:H,6,0),"请在进口贸易表中填写对应产物的进口成本")</f>
-        <v>请在进口贸易表中填写对应产物的进口成本</v>
+        <v>40</v>
       </c>
       <c r="H284" s="5">
         <f t="shared" ref="H284:H311" si="100">F284+O284+T284+Y284</f>
         <v>0</v>
       </c>
-      <c r="I284" s="5" t="str">
+      <c r="I284" s="5">
         <f t="shared" ref="I284:I311" si="101">IF(C284="贸易",G284,P284+U284+Z284)</f>
-        <v>请在进口贸易表中填写对应产物的进口成本</v>
+        <v>40</v>
       </c>
       <c r="J284" s="5">
         <f t="shared" ref="J284:J311" si="102">H284/E284</f>
         <v>0</v>
       </c>
-      <c r="K284" s="5" t="e">
+      <c r="K284" s="5">
         <f t="shared" ref="K284:K311" si="103">I284/E284</f>
-        <v>#VALUE!</v>
+        <v>40</v>
       </c>
       <c r="L284" s="1" t="s">
         <v>30</v>
@@ -32262,7 +32287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="10">
         <f t="shared" si="99"/>
         <v>284</v>
@@ -32354,7 +32379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="10">
         <f t="shared" si="99"/>
         <v>285</v>
@@ -32446,7 +32471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="10">
         <f t="shared" si="99"/>
         <v>286</v>
@@ -32538,7 +32563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="10">
         <f t="shared" si="99"/>
         <v>287</v>
@@ -32630,7 +32655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="10">
         <f t="shared" si="99"/>
         <v>288</v>
@@ -32722,7 +32747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="10">
         <f t="shared" si="99"/>
         <v>289</v>
@@ -32814,7 +32839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="10">
         <f t="shared" si="99"/>
         <v>290</v>
@@ -32906,7 +32931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="10">
         <f t="shared" ref="A292:A301" si="104">ROW()-1</f>
         <v>291</v>
@@ -32998,7 +33023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="10">
         <f t="shared" si="104"/>
         <v>292</v>
@@ -33090,7 +33115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="10">
         <f t="shared" si="104"/>
         <v>293</v>
@@ -33182,7 +33207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="10">
         <f t="shared" si="104"/>
         <v>294</v>
@@ -33274,7 +33299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="10">
         <f t="shared" si="104"/>
         <v>295</v>
@@ -33366,7 +33391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="10">
         <f t="shared" si="104"/>
         <v>296</v>
@@ -33458,7 +33483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="10">
         <f t="shared" si="104"/>
         <v>297</v>
@@ -33550,7 +33575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="10">
         <f t="shared" si="104"/>
         <v>298</v>
@@ -33642,7 +33667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="10">
         <f t="shared" si="104"/>
         <v>299</v>
@@ -33734,7 +33759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10">
         <f t="shared" si="104"/>
         <v>300</v>
@@ -33826,7 +33851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="10">
         <f t="shared" ref="A302:A311" si="105">ROW()-1</f>
         <v>301</v>
@@ -33918,7 +33943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="10">
         <f t="shared" si="105"/>
         <v>302</v>
@@ -34010,7 +34035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="10">
         <f t="shared" si="105"/>
         <v>303</v>
@@ -34060,7 +34085,7 @@
         <v>0</v>
       </c>
       <c r="O304" s="1">
-        <f t="shared" ref="O304:O335" si="106">VLOOKUP(IF(M304="无",L304,L304&amp;"("&amp;M304&amp;")"),D:J,7,0)*N304</f>
+        <f t="shared" ref="O304:O314" si="106">VLOOKUP(IF(M304="无",L304,L304&amp;"("&amp;M304&amp;")"),D:J,7,0)*N304</f>
         <v>0</v>
       </c>
       <c r="P304" s="1">
@@ -34077,7 +34102,7 @@
         <v>0</v>
       </c>
       <c r="T304" s="1">
-        <f t="shared" ref="T304:T335" si="108">VLOOKUP(IF(R304="无",Q304,Q304&amp;"("&amp;R304&amp;")"),D:J,7,0)*S304</f>
+        <f t="shared" ref="T304:T314" si="108">VLOOKUP(IF(R304="无",Q304,Q304&amp;"("&amp;R304&amp;")"),D:J,7,0)*S304</f>
         <v>0</v>
       </c>
       <c r="U304" s="1">
@@ -34094,7 +34119,7 @@
         <v>0</v>
       </c>
       <c r="Y304" s="1">
-        <f t="shared" ref="Y304:Y335" si="110">VLOOKUP(IF(W304="无",V304,V304&amp;"("&amp;W304&amp;")"),D:J,7,0)*X304</f>
+        <f t="shared" ref="Y304:Y314" si="110">VLOOKUP(IF(W304="无",V304,V304&amp;"("&amp;W304&amp;")"),D:J,7,0)*X304</f>
         <v>0</v>
       </c>
       <c r="Z304" s="1">
@@ -34102,7 +34127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10">
         <f t="shared" si="105"/>
         <v>304</v>
@@ -34194,7 +34219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="10">
         <f t="shared" si="105"/>
         <v>305</v>
@@ -34286,7 +34311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="10">
         <f t="shared" si="105"/>
         <v>306</v>
@@ -34378,7 +34403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="10">
         <f t="shared" si="105"/>
         <v>307</v>
@@ -34470,7 +34495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="10">
         <f t="shared" si="105"/>
         <v>308</v>
@@ -34562,7 +34587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="10">
         <f t="shared" si="105"/>
         <v>309</v>
@@ -34654,7 +34679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="10">
         <f t="shared" si="105"/>
         <v>310</v>
@@ -34928,7 +34953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="10">
         <f t="shared" ref="A314:A316" si="112">ROW()-1</f>
         <v>313</v>
@@ -35019,7 +35044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="10">
         <f t="shared" si="112"/>
         <v>314</v>
@@ -35110,7 +35135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="10">
         <f t="shared" si="112"/>
         <v>315</v>
@@ -35202,7 +35227,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z316" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:Z316" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="铸币厂"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Z250">
     <sortCondition ref="C2:C250"/>
     <sortCondition ref="D2:D250"/>
@@ -35256,7 +35287,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -35308,10 +35339,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K189"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -35394,17 +35425,17 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="e">
-        <f t="shared" ref="J2:J33" si="0">F2-I2</f>
+        <f>(F2-I2)*E2</f>
         <v>#VALUE!</v>
       </c>
       <c r="K2" s="1" t="e">
-        <f t="shared" ref="K2:K33" si="1">IF(H2&lt;&gt;0,J2/H2,"生产人工成本为0，无法计算")</f>
+        <f t="shared" ref="K2:K33" si="0">IF(H2&lt;&gt;0,J2/H2,"生产人工成本为0，无法计算")</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
-        <f t="shared" ref="A3:A35" si="2">ROW()-1</f>
+        <f t="shared" ref="A3:A35" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -35434,17 +35465,17 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="e">
+        <f t="shared" ref="J3:J66" si="2">(F3-I3)*E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K3" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -35474,17 +35505,17 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K4" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="5" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -35514,17 +35545,17 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -35547,24 +35578,24 @@
       <c r="G6" s="14"/>
       <c r="H6" s="1">
         <f>VLOOKUP(B6,生产成本!D:K,7,0)*E6</f>
-        <v>2910</v>
+        <v>2700</v>
       </c>
       <c r="I6" s="1">
         <f>VLOOKUP(B6,生产成本!D:K,8,0)*E6</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J6" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="7" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -35594,17 +35625,17 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -35634,17 +35665,17 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -35674,17 +35705,17 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="10" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -35714,17 +35745,17 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K10" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="11" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -35754,17 +35785,17 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="12" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -35794,17 +35825,17 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="13" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -35834,17 +35865,17 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -35874,17 +35905,17 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -35907,24 +35938,24 @@
       <c r="G15" s="14"/>
       <c r="H15" s="1">
         <f>VLOOKUP(B15,生产成本!D:K,7,0)*E15</f>
-        <v>1823.75</v>
+        <v>1677.9166666666665</v>
       </c>
       <c r="I15" s="1">
         <f>VLOOKUP(B15,生产成本!D:K,8,0)*E15</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -35954,17 +35985,17 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -35994,17 +36025,17 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -36034,17 +36065,17 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K18" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -36074,17 +36105,17 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -36114,17 +36145,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K20" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -36154,17 +36185,17 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -36194,17 +36225,17 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K22" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -36234,17 +36265,17 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -36274,17 +36305,17 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K24" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -36314,17 +36345,17 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -36354,17 +36385,17 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -36394,17 +36425,17 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="28" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -36434,17 +36465,17 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="29" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -36474,17 +36505,17 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K29" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="30" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -36507,24 +36538,24 @@
       <c r="G30" s="14"/>
       <c r="H30" s="1">
         <f>VLOOKUP(B30,生产成本!D:K,7,0)*E30</f>
-        <v>2910</v>
+        <v>2700</v>
       </c>
       <c r="I30" s="1">
         <f>VLOOKUP(B30,生产成本!D:K,8,0)*E30</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J30" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="31" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -36554,17 +36585,17 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="32" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -36594,17 +36625,17 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="33" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -36634,17 +36665,17 @@
         <v>0</v>
       </c>
       <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -36674,17 +36705,17 @@
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" ref="J34:J65" si="3">F34-I34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ref="K34:K65" si="4">IF(H34&lt;&gt;0,J34/H34,"生产人工成本为0，无法计算")</f>
+        <f t="shared" ref="K34:K65" si="3">IF(H34&lt;&gt;0,J34/H34,"生产人工成本为0，无法计算")</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -36714,17 +36745,17 @@
         <v>0</v>
       </c>
       <c r="J35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
-        <f t="shared" ref="A36:A65" si="5">ROW()-1</f>
+        <f t="shared" ref="A36:A65" si="4">ROW()-1</f>
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -36754,17 +36785,17 @@
         <v>0</v>
       </c>
       <c r="J36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -36794,17 +36825,17 @@
         <v>0</v>
       </c>
       <c r="J37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -36834,17 +36865,17 @@
         <v>0</v>
       </c>
       <c r="J38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -36874,17 +36905,17 @@
         <v>0</v>
       </c>
       <c r="J39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -36914,17 +36945,17 @@
         <v>0</v>
       </c>
       <c r="J40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -36954,17 +36985,17 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K41" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K41" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -36994,17 +37025,17 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K42" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="43" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -37034,17 +37065,17 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K43" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K43" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="44" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -37074,17 +37105,17 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K44" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -37114,17 +37145,17 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K45" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K45" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -37154,17 +37185,17 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K46" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -37194,17 +37225,17 @@
         <v>0</v>
       </c>
       <c r="J47" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K47" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K47" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -37234,17 +37265,17 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="49" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -37274,17 +37305,17 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K49" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="50" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -37314,17 +37345,17 @@
         <v>0</v>
       </c>
       <c r="J50" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -37354,17 +37385,17 @@
         <v>0</v>
       </c>
       <c r="J51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -37394,17 +37425,17 @@
         <v>0</v>
       </c>
       <c r="J52" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -37434,17 +37465,17 @@
         <v>#N/A</v>
       </c>
       <c r="J53" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K53" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="K53" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -37474,17 +37505,17 @@
         <v>0</v>
       </c>
       <c r="J54" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -37514,17 +37545,17 @@
         <v>0</v>
       </c>
       <c r="J55" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -37554,17 +37585,17 @@
         <v>0</v>
       </c>
       <c r="J56" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -37594,17 +37625,17 @@
         <v>0</v>
       </c>
       <c r="J57" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -37634,17 +37665,17 @@
         <v>0</v>
       </c>
       <c r="J58" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -37674,17 +37705,17 @@
         <v>0</v>
       </c>
       <c r="J59" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -37714,17 +37745,17 @@
         <v>0</v>
       </c>
       <c r="J60" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -37754,17 +37785,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -37794,17 +37825,17 @@
         <v>0</v>
       </c>
       <c r="J62" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -37834,17 +37865,17 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -37874,17 +37905,17 @@
         <v>0</v>
       </c>
       <c r="J64" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -37914,17 +37945,17 @@
         <v>0</v>
       </c>
       <c r="J65" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
-        <f t="shared" ref="A66:A129" si="6">ROW()-1</f>
+        <f t="shared" ref="A66:A129" si="5">ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -37954,17 +37985,17 @@
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" ref="J66:J97" si="7">F66-I66</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" ref="K66:K97" si="8">IF(H66&lt;&gt;0,J66/H66,"生产人工成本为0，无法计算")</f>
+        <f t="shared" ref="K66:K97" si="6">IF(H66&lt;&gt;0,J66/H66,"生产人工成本为0，无法计算")</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -37980,31 +38011,33 @@
       <c r="E67" s="1">
         <v>3</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="1" t="str">
+      <c r="F67" s="14">
+        <v>300</v>
+      </c>
+      <c r="G67" s="1">
         <f>IF(F67="","请填写实际价格(本币)，外币结算会自动计算",F67/汇率相关!$B$2)</f>
-        <v>请填写实际价格(本币)，外币结算会自动计算</v>
+        <v>0.3</v>
       </c>
       <c r="H67" s="1">
         <f>VLOOKUP(B67,生产成本!D:K,7,0)*E67</f>
-        <v>2910</v>
+        <v>2700</v>
       </c>
       <c r="I67" s="1">
         <f>VLOOKUP(B67,生产成本!D:K,8,0)*E67</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="J67:J130" si="7">(F67-I67)*E67</f>
+        <v>540</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -38038,13 +38071,13 @@
         <v>0</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -38078,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -38118,13 +38151,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -38158,13 +38191,13 @@
         <v>0</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -38198,13 +38231,13 @@
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -38238,13 +38271,13 @@
         <v>0</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -38278,13 +38311,13 @@
         <v>0</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -38318,13 +38351,13 @@
         <v>0</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -38358,13 +38391,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="K76" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -38398,13 +38431,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="K77" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -38438,13 +38471,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="K78" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -38478,13 +38511,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="K79" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -38518,13 +38551,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -38558,13 +38591,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="K81" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
@@ -38588,18 +38621,18 @@
         <f>VLOOKUP(B82,生产成本!D:K,8,0)*E82</f>
         <v>0</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J82" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K82" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -38623,18 +38656,18 @@
         <f>VLOOKUP(B83,生产成本!D:K,8,0)*E83</f>
         <v>0</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J83" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K83" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
@@ -38658,18 +38691,18 @@
         <f>VLOOKUP(B84,生产成本!D:K,8,0)*E84</f>
         <v>0</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J84" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K84" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
@@ -38693,18 +38726,18 @@
         <f>VLOOKUP(B85,生产成本!D:K,8,0)*E85</f>
         <v>0</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J85" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K85" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
@@ -38728,18 +38761,18 @@
         <f>VLOOKUP(B86,生产成本!D:K,8,0)*E86</f>
         <v>0</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J86" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K86" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
@@ -38763,18 +38796,18 @@
         <f>VLOOKUP(B87,生产成本!D:K,8,0)*E87</f>
         <v>0</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J87" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K87" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
@@ -38798,18 +38831,18 @@
         <f>VLOOKUP(B88,生产成本!D:K,8,0)*E88</f>
         <v>0</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J88" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K88" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
@@ -38833,18 +38866,18 @@
         <f>VLOOKUP(B89,生产成本!D:K,8,0)*E89</f>
         <v>0</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J89" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K89" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
@@ -38868,18 +38901,18 @@
         <f>VLOOKUP(B90,生产成本!D:K,8,0)*E90</f>
         <v>0</v>
       </c>
-      <c r="J90" s="12">
+      <c r="J90" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K90" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
@@ -38903,18 +38936,18 @@
         <f>VLOOKUP(B91,生产成本!D:K,8,0)*E91</f>
         <v>0</v>
       </c>
-      <c r="J91" s="12">
+      <c r="J91" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K91" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
@@ -38938,18 +38971,18 @@
         <f>VLOOKUP(B92,生产成本!D:K,8,0)*E92</f>
         <v>0</v>
       </c>
-      <c r="J92" s="12">
+      <c r="J92" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K92" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -38973,18 +39006,18 @@
         <f>VLOOKUP(B93,生产成本!D:K,8,0)*E93</f>
         <v>0</v>
       </c>
-      <c r="J93" s="12">
+      <c r="J93" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K93" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
@@ -39008,18 +39041,18 @@
         <f>VLOOKUP(B94,生产成本!D:K,8,0)*E94</f>
         <v>0</v>
       </c>
-      <c r="J94" s="12">
+      <c r="J94" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K94" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
@@ -39043,18 +39076,18 @@
         <f>VLOOKUP(B95,生产成本!D:K,8,0)*E95</f>
         <v>0</v>
       </c>
-      <c r="J95" s="12">
+      <c r="J95" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K95" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
@@ -39078,18 +39111,18 @@
         <f>VLOOKUP(B96,生产成本!D:K,8,0)*E96</f>
         <v>0</v>
       </c>
-      <c r="J96" s="12">
+      <c r="J96" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K96" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
@@ -39113,18 +39146,18 @@
         <f>VLOOKUP(B97,生产成本!D:K,8,0)*E97</f>
         <v>0</v>
       </c>
-      <c r="J97" s="12">
+      <c r="J97" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K97" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
@@ -39148,18 +39181,18 @@
         <f>VLOOKUP(B98,生产成本!D:K,8,0)*E98</f>
         <v>0</v>
       </c>
-      <c r="J98" s="12">
-        <f t="shared" ref="J98:J129" si="9">F98-I98</f>
+      <c r="J98" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K98" s="12" t="str">
-        <f t="shared" ref="K98:K129" si="10">IF(H98&lt;&gt;0,J98/H98,"生产人工成本为0，无法计算")</f>
+        <f t="shared" ref="K98:K129" si="8">IF(H98&lt;&gt;0,J98/H98,"生产人工成本为0，无法计算")</f>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
@@ -39183,18 +39216,18 @@
         <f>VLOOKUP(B99,生产成本!D:K,8,0)*E99</f>
         <v>0</v>
       </c>
-      <c r="J99" s="12">
-        <f t="shared" si="9"/>
+      <c r="J99" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K99" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
@@ -39218,18 +39251,18 @@
         <f>VLOOKUP(B100,生产成本!D:K,8,0)*E100</f>
         <v>0</v>
       </c>
-      <c r="J100" s="12">
-        <f t="shared" si="9"/>
+      <c r="J100" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K100" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="B101" s="12" t="s">
@@ -39253,18 +39286,18 @@
         <f>VLOOKUP(B101,生产成本!D:K,8,0)*E101</f>
         <v>0</v>
       </c>
-      <c r="J101" s="12">
-        <f t="shared" si="9"/>
+      <c r="J101" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K101" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
@@ -39288,18 +39321,18 @@
         <f>VLOOKUP(B102,生产成本!D:K,8,0)*E102</f>
         <v>0</v>
       </c>
-      <c r="J102" s="12">
-        <f t="shared" si="9"/>
+      <c r="J102" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K102" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
@@ -39323,18 +39356,18 @@
         <f>VLOOKUP(B103,生产成本!D:K,8,0)*E103</f>
         <v>0</v>
       </c>
-      <c r="J103" s="12">
-        <f t="shared" si="9"/>
+      <c r="J103" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K103" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
@@ -39358,18 +39391,18 @@
         <f>VLOOKUP(B104,生产成本!D:K,8,0)*E104</f>
         <v>0</v>
       </c>
-      <c r="J104" s="12">
-        <f t="shared" si="9"/>
+      <c r="J104" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K104" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
@@ -39393,18 +39426,18 @@
         <f>VLOOKUP(B105,生产成本!D:K,8,0)*E105</f>
         <v>0</v>
       </c>
-      <c r="J105" s="12">
-        <f t="shared" si="9"/>
+      <c r="J105" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K105" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
@@ -39428,18 +39461,18 @@
         <f>VLOOKUP(B106,生产成本!D:K,8,0)*E106</f>
         <v>0</v>
       </c>
-      <c r="J106" s="12">
-        <f t="shared" si="9"/>
+      <c r="J106" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K106" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
@@ -39463,18 +39496,18 @@
         <f>VLOOKUP(B107,生产成本!D:K,8,0)*E107</f>
         <v>0</v>
       </c>
-      <c r="J107" s="12">
-        <f t="shared" si="9"/>
+      <c r="J107" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K107" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
@@ -39498,18 +39531,18 @@
         <f>VLOOKUP(B108,生产成本!D:K,8,0)*E108</f>
         <v>0</v>
       </c>
-      <c r="J108" s="12">
-        <f t="shared" si="9"/>
+      <c r="J108" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K108" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
@@ -39533,18 +39566,18 @@
         <f>VLOOKUP(B109,生产成本!D:K,8,0)*E109</f>
         <v>0</v>
       </c>
-      <c r="J109" s="12">
-        <f t="shared" si="9"/>
+      <c r="J109" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K109" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="B110" s="12" t="s">
@@ -39568,18 +39601,18 @@
         <f>VLOOKUP(B110,生产成本!D:K,8,0)*E110</f>
         <v>0</v>
       </c>
-      <c r="J110" s="12">
-        <f t="shared" si="9"/>
+      <c r="J110" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K110" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
@@ -39603,18 +39636,18 @@
         <f>VLOOKUP(B111,生产成本!D:K,8,0)*E111</f>
         <v>0</v>
       </c>
-      <c r="J111" s="12">
-        <f t="shared" si="9"/>
+      <c r="J111" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K111" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
@@ -39638,18 +39671,18 @@
         <f>VLOOKUP(B112,生产成本!D:K,8,0)*E112</f>
         <v>0</v>
       </c>
-      <c r="J112" s="12">
-        <f t="shared" si="9"/>
+      <c r="J112" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K112" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
@@ -39673,18 +39706,18 @@
         <f>VLOOKUP(B113,生产成本!D:K,8,0)*E113</f>
         <v>0</v>
       </c>
-      <c r="J113" s="12">
-        <f t="shared" si="9"/>
+      <c r="J113" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K113" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
@@ -39708,18 +39741,18 @@
         <f>VLOOKUP(B114,生产成本!D:K,8,0)*E114</f>
         <v>0</v>
       </c>
-      <c r="J114" s="12">
-        <f t="shared" si="9"/>
+      <c r="J114" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K114" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="115" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="B115" s="12" t="s">
@@ -39743,18 +39776,18 @@
         <f>VLOOKUP(B115,生产成本!D:K,8,0)*E115</f>
         <v>0</v>
       </c>
-      <c r="J115" s="12">
-        <f t="shared" si="9"/>
+      <c r="J115" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K115" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="116" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
@@ -39778,18 +39811,18 @@
         <f>VLOOKUP(B116,生产成本!D:K,8,0)*E116</f>
         <v>#N/A</v>
       </c>
-      <c r="J116" s="12" t="e">
-        <f t="shared" si="9"/>
+      <c r="J116" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="K116" s="12" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
@@ -39813,18 +39846,18 @@
         <f>VLOOKUP(B117,生产成本!D:K,8,0)*E117</f>
         <v>0</v>
       </c>
-      <c r="J117" s="12">
-        <f t="shared" si="9"/>
+      <c r="J117" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K117" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="118" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
       <c r="B118" s="12" t="s">
@@ -39848,18 +39881,18 @@
         <f>VLOOKUP(B118,生产成本!D:K,8,0)*E118</f>
         <v>0</v>
       </c>
-      <c r="J118" s="12">
-        <f t="shared" si="9"/>
+      <c r="J118" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K118" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="119" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="B119" s="12" t="s">
@@ -39883,18 +39916,18 @@
         <f>VLOOKUP(B119,生产成本!D:K,8,0)*E119</f>
         <v>0</v>
       </c>
-      <c r="J119" s="12">
-        <f t="shared" si="9"/>
+      <c r="J119" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K119" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="B120" s="12" t="s">
@@ -39918,18 +39951,18 @@
         <f>VLOOKUP(B120,生产成本!D:K,8,0)*E120</f>
         <v>0</v>
       </c>
-      <c r="J120" s="12">
-        <f t="shared" si="9"/>
+      <c r="J120" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K120" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="B121" s="12" t="s">
@@ -39953,18 +39986,18 @@
         <f>VLOOKUP(B121,生产成本!D:K,8,0)*E121</f>
         <v>0</v>
       </c>
-      <c r="J121" s="12">
-        <f t="shared" si="9"/>
+      <c r="J121" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K121" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
@@ -39988,18 +40021,18 @@
         <f>VLOOKUP(B122,生产成本!D:K,8,0)*E122</f>
         <v>0</v>
       </c>
-      <c r="J122" s="12">
-        <f t="shared" si="9"/>
+      <c r="J122" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K122" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
@@ -40023,18 +40056,18 @@
         <f>VLOOKUP(B123,生产成本!D:K,8,0)*E123</f>
         <v>0</v>
       </c>
-      <c r="J123" s="12">
-        <f t="shared" si="9"/>
+      <c r="J123" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K123" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
@@ -40058,18 +40091,18 @@
         <f>VLOOKUP(B124,生产成本!D:K,8,0)*E124</f>
         <v>0</v>
       </c>
-      <c r="J124" s="12">
-        <f t="shared" si="9"/>
+      <c r="J124" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K124" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
@@ -40093,18 +40126,18 @@
         <f>VLOOKUP(B125,生产成本!D:K,8,0)*E125</f>
         <v>0</v>
       </c>
-      <c r="J125" s="12">
-        <f t="shared" si="9"/>
+      <c r="J125" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K125" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
@@ -40128,18 +40161,18 @@
         <f>VLOOKUP(B126,生产成本!D:K,8,0)*E126</f>
         <v>0</v>
       </c>
-      <c r="J126" s="12">
-        <f t="shared" si="9"/>
+      <c r="J126" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K126" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="B127" s="12" t="s">
@@ -40163,18 +40196,18 @@
         <f>VLOOKUP(B127,生产成本!D:K,8,0)*E127</f>
         <v>0</v>
       </c>
-      <c r="J127" s="12">
-        <f t="shared" si="9"/>
+      <c r="J127" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K127" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
@@ -40198,18 +40231,18 @@
         <f>VLOOKUP(B128,生产成本!D:K,8,0)*E128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="12">
-        <f t="shared" si="9"/>
+      <c r="J128" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K128" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
@@ -40233,18 +40266,18 @@
         <f>VLOOKUP(B129,生产成本!D:K,8,0)*E129</f>
         <v>0</v>
       </c>
-      <c r="J129" s="12">
-        <f t="shared" si="9"/>
+      <c r="J129" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K129" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
-        <f t="shared" ref="A130:A161" si="11">ROW()-1</f>
+        <f t="shared" ref="A130:A161" si="9">ROW()-1</f>
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
@@ -40268,18 +40301,18 @@
         <f>VLOOKUP(B130,生产成本!D:K,8,0)*E130</f>
         <v>0</v>
       </c>
-      <c r="J130" s="12">
-        <f t="shared" ref="J130:J161" si="12">F130-I130</f>
+      <c r="J130" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K130" s="12" t="str">
-        <f t="shared" ref="K130:K161" si="13">IF(H130&lt;&gt;0,J130/H130,"生产人工成本为0，无法计算")</f>
+        <f t="shared" ref="K130:K161" si="10">IF(H130&lt;&gt;0,J130/H130,"生产人工成本为0，无法计算")</f>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
@@ -40303,18 +40336,18 @@
         <f>VLOOKUP(B131,生产成本!D:K,8,0)*E131</f>
         <v>0</v>
       </c>
-      <c r="J131" s="12">
-        <f t="shared" si="12"/>
+      <c r="J131" s="1">
+        <f t="shared" ref="J131:J191" si="11">(F131-I131)*E131</f>
         <v>0</v>
       </c>
       <c r="K131" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
@@ -40338,18 +40371,18 @@
         <f>VLOOKUP(B132,生产成本!D:K,8,0)*E132</f>
         <v>0</v>
       </c>
-      <c r="J132" s="12">
-        <f t="shared" si="12"/>
+      <c r="J132" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K132" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
@@ -40373,18 +40406,18 @@
         <f>VLOOKUP(B133,生产成本!D:K,8,0)*E133</f>
         <v>0</v>
       </c>
-      <c r="J133" s="12">
-        <f t="shared" si="12"/>
+      <c r="J133" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K133" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>133</v>
       </c>
       <c r="B134" s="12" t="s">
@@ -40408,18 +40441,18 @@
         <f>VLOOKUP(B134,生产成本!D:K,8,0)*E134</f>
         <v>0</v>
       </c>
-      <c r="J134" s="12">
-        <f t="shared" si="12"/>
+      <c r="J134" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K134" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
@@ -40443,18 +40476,18 @@
         <f>VLOOKUP(B135,生产成本!D:K,8,0)*E135</f>
         <v>0</v>
       </c>
-      <c r="J135" s="12">
-        <f t="shared" si="12"/>
+      <c r="J135" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K135" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
@@ -40478,18 +40511,18 @@
         <f>VLOOKUP(B136,生产成本!D:K,8,0)*E136</f>
         <v>0</v>
       </c>
-      <c r="J136" s="12">
-        <f t="shared" si="12"/>
+      <c r="J136" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K136" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
@@ -40513,18 +40546,18 @@
         <f>VLOOKUP(B137,生产成本!D:K,8,0)*E137</f>
         <v>0</v>
       </c>
-      <c r="J137" s="12">
-        <f t="shared" si="12"/>
+      <c r="J137" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K137" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>137</v>
       </c>
       <c r="B138" s="12" t="s">
@@ -40548,18 +40581,18 @@
         <f>VLOOKUP(B138,生产成本!D:K,8,0)*E138</f>
         <v>0</v>
       </c>
-      <c r="J138" s="12">
-        <f t="shared" si="12"/>
+      <c r="J138" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K138" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="139" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
@@ -40583,18 +40616,18 @@
         <f>VLOOKUP(B139,生产成本!D:K,8,0)*E139</f>
         <v>0</v>
       </c>
-      <c r="J139" s="12">
-        <f t="shared" si="12"/>
+      <c r="J139" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K139" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="140" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
@@ -40618,18 +40651,18 @@
         <f>VLOOKUP(B140,生产成本!D:K,8,0)*E140</f>
         <v>0</v>
       </c>
-      <c r="J140" s="12">
-        <f t="shared" si="12"/>
+      <c r="J140" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K140" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="141" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
@@ -40653,18 +40686,18 @@
         <f>VLOOKUP(B141,生产成本!D:K,8,0)*E141</f>
         <v>0</v>
       </c>
-      <c r="J141" s="12">
-        <f t="shared" si="12"/>
+      <c r="J141" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K141" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="142" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
@@ -40688,18 +40721,18 @@
         <f>VLOOKUP(B142,生产成本!D:K,8,0)*E142</f>
         <v>0</v>
       </c>
-      <c r="J142" s="12">
-        <f t="shared" si="12"/>
+      <c r="J142" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K142" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
@@ -40723,18 +40756,18 @@
         <f>VLOOKUP(B143,生产成本!D:K,8,0)*E143</f>
         <v>0</v>
       </c>
-      <c r="J143" s="12">
-        <f t="shared" si="12"/>
+      <c r="J143" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K143" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="144" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
@@ -40758,18 +40791,18 @@
         <f>VLOOKUP(B144,生产成本!D:K,8,0)*E144</f>
         <v>0</v>
       </c>
-      <c r="J144" s="12">
-        <f t="shared" si="12"/>
+      <c r="J144" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K144" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="145" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
@@ -40793,18 +40826,18 @@
         <f>VLOOKUP(B145,生产成本!D:K,8,0)*E145</f>
         <v>0</v>
       </c>
-      <c r="J145" s="12">
-        <f t="shared" si="12"/>
+      <c r="J145" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K145" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="146" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
@@ -40828,18 +40861,18 @@
         <f>VLOOKUP(B146,生产成本!D:K,8,0)*E146</f>
         <v>0</v>
       </c>
-      <c r="J146" s="12">
-        <f t="shared" si="12"/>
+      <c r="J146" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K146" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="147" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
@@ -40863,18 +40896,18 @@
         <f>VLOOKUP(B147,生产成本!D:K,8,0)*E147</f>
         <v>0</v>
       </c>
-      <c r="J147" s="12">
-        <f t="shared" si="12"/>
+      <c r="J147" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K147" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="148" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
@@ -40898,18 +40931,18 @@
         <f>VLOOKUP(B148,生产成本!D:K,8,0)*E148</f>
         <v>0</v>
       </c>
-      <c r="J148" s="12">
-        <f t="shared" si="12"/>
+      <c r="J148" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K148" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
@@ -40933,18 +40966,18 @@
         <f>VLOOKUP(B149,生产成本!D:K,8,0)*E149</f>
         <v>0</v>
       </c>
-      <c r="J149" s="12">
-        <f t="shared" si="12"/>
+      <c r="J149" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K149" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
@@ -40968,18 +41001,18 @@
         <f>VLOOKUP(B150,生产成本!D:K,8,0)*E150</f>
         <v>0</v>
       </c>
-      <c r="J150" s="12">
-        <f t="shared" si="12"/>
+      <c r="J150" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K150" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
@@ -41003,18 +41036,18 @@
         <f>VLOOKUP(B151,生产成本!D:K,8,0)*E151</f>
         <v>0</v>
       </c>
-      <c r="J151" s="12">
-        <f t="shared" si="12"/>
+      <c r="J151" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K151" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="152" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
@@ -41038,18 +41071,18 @@
         <f>VLOOKUP(B152,生产成本!D:K,8,0)*E152</f>
         <v>0</v>
       </c>
-      <c r="J152" s="12">
-        <f t="shared" si="12"/>
+      <c r="J152" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K152" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="153" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
@@ -41073,18 +41106,18 @@
         <f>VLOOKUP(B153,生产成本!D:K,8,0)*E153</f>
         <v>0</v>
       </c>
-      <c r="J153" s="12">
-        <f t="shared" si="12"/>
+      <c r="J153" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K153" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="154" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
@@ -41108,18 +41141,18 @@
         <f>VLOOKUP(B154,生产成本!D:K,8,0)*E154</f>
         <v>0</v>
       </c>
-      <c r="J154" s="12">
-        <f t="shared" si="12"/>
+      <c r="J154" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K154" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
@@ -41143,18 +41176,18 @@
         <f>VLOOKUP(B155,生产成本!D:K,8,0)*E155</f>
         <v>0</v>
       </c>
-      <c r="J155" s="12">
-        <f t="shared" si="12"/>
+      <c r="J155" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K155" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="156" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
@@ -41178,18 +41211,18 @@
         <f>VLOOKUP(B156,生产成本!D:K,8,0)*E156</f>
         <v>0</v>
       </c>
-      <c r="J156" s="12">
-        <f t="shared" si="12"/>
+      <c r="J156" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K156" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="157" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
@@ -41213,18 +41246,18 @@
         <f>VLOOKUP(B157,生产成本!D:K,8,0)*E157</f>
         <v>0</v>
       </c>
-      <c r="J157" s="12">
-        <f t="shared" si="12"/>
+      <c r="J157" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K157" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="158" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
@@ -41248,18 +41281,18 @@
         <f>VLOOKUP(B158,生产成本!D:K,8,0)*E158</f>
         <v>0</v>
       </c>
-      <c r="J158" s="12">
-        <f t="shared" si="12"/>
+      <c r="J158" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K158" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
@@ -41283,18 +41316,18 @@
         <f>VLOOKUP(B159,生产成本!D:K,8,0)*E159</f>
         <v>0</v>
       </c>
-      <c r="J159" s="12">
-        <f t="shared" si="12"/>
+      <c r="J159" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K159" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="160" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
@@ -41318,18 +41351,18 @@
         <f>VLOOKUP(B160,生产成本!D:K,8,0)*E160</f>
         <v>0</v>
       </c>
-      <c r="J160" s="12">
-        <f t="shared" si="12"/>
+      <c r="J160" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K160" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="161" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
@@ -41353,18 +41386,18 @@
         <f>VLOOKUP(B161,生产成本!D:K,8,0)*E161</f>
         <v>0</v>
       </c>
-      <c r="J161" s="12">
-        <f t="shared" si="12"/>
+      <c r="J161" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K161" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
-        <f t="shared" ref="A162:A189" si="14">ROW()-1</f>
+        <f t="shared" ref="A162:A191" si="12">ROW()-1</f>
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
@@ -41388,18 +41421,18 @@
         <f>VLOOKUP(B162,生产成本!D:K,8,0)*E162</f>
         <v>0</v>
       </c>
-      <c r="J162" s="12">
-        <f t="shared" ref="J162:J189" si="15">F162-I162</f>
+      <c r="J162" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K162" s="12" t="str">
-        <f t="shared" ref="K162:K189" si="16">IF(H162&lt;&gt;0,J162/H162,"生产人工成本为0，无法计算")</f>
+        <f t="shared" ref="K162:K189" si="13">IF(H162&lt;&gt;0,J162/H162,"生产人工成本为0，无法计算")</f>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
@@ -41423,18 +41456,18 @@
         <f>VLOOKUP(B163,生产成本!D:K,8,0)*E163</f>
         <v>0</v>
       </c>
-      <c r="J163" s="12">
-        <f t="shared" si="15"/>
+      <c r="J163" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K163" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
@@ -41458,18 +41491,18 @@
         <f>VLOOKUP(B164,生产成本!D:K,8,0)*E164</f>
         <v>0</v>
       </c>
-      <c r="J164" s="12">
-        <f t="shared" si="15"/>
+      <c r="J164" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K164" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
@@ -41493,18 +41526,18 @@
         <f>VLOOKUP(B165,生产成本!D:K,8,0)*E165</f>
         <v>0</v>
       </c>
-      <c r="J165" s="12">
-        <f t="shared" si="15"/>
+      <c r="J165" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K165" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
@@ -41528,18 +41561,18 @@
         <f>VLOOKUP(B166,生产成本!D:K,8,0)*E166</f>
         <v>0</v>
       </c>
-      <c r="J166" s="12">
-        <f t="shared" si="15"/>
+      <c r="J166" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K166" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
@@ -41563,18 +41596,18 @@
         <f>VLOOKUP(B167,生产成本!D:K,8,0)*E167</f>
         <v>0</v>
       </c>
-      <c r="J167" s="12">
-        <f t="shared" si="15"/>
+      <c r="J167" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K167" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
@@ -41598,18 +41631,18 @@
         <f>VLOOKUP(B168,生产成本!D:K,8,0)*E168</f>
         <v>0</v>
       </c>
-      <c r="J168" s="12">
-        <f t="shared" si="15"/>
+      <c r="J168" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K168" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>168</v>
       </c>
       <c r="B169" s="12" t="s">
@@ -41633,18 +41666,18 @@
         <f>VLOOKUP(B169,生产成本!D:K,8,0)*E169</f>
         <v>0</v>
       </c>
-      <c r="J169" s="12">
-        <f t="shared" si="15"/>
+      <c r="J169" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K169" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>169</v>
       </c>
       <c r="B170" s="12" t="s">
@@ -41668,18 +41701,18 @@
         <f>VLOOKUP(B170,生产成本!D:K,8,0)*E170</f>
         <v>0</v>
       </c>
-      <c r="J170" s="12">
-        <f t="shared" si="15"/>
+      <c r="J170" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K170" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>170</v>
       </c>
       <c r="B171" s="12" t="s">
@@ -41703,18 +41736,18 @@
         <f>VLOOKUP(B171,生产成本!D:K,8,0)*E171</f>
         <v>0</v>
       </c>
-      <c r="J171" s="12">
-        <f t="shared" si="15"/>
+      <c r="J171" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K171" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>171</v>
       </c>
       <c r="B172" s="12" t="s">
@@ -41738,18 +41771,18 @@
         <f>VLOOKUP(B172,生产成本!D:K,8,0)*E172</f>
         <v>0</v>
       </c>
-      <c r="J172" s="12">
-        <f t="shared" si="15"/>
+      <c r="J172" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K172" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>172</v>
       </c>
       <c r="B173" s="12" t="s">
@@ -41773,18 +41806,18 @@
         <f>VLOOKUP(B173,生产成本!D:K,8,0)*E173</f>
         <v>0</v>
       </c>
-      <c r="J173" s="12">
-        <f t="shared" si="15"/>
+      <c r="J173" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K173" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>173</v>
       </c>
       <c r="B174" s="12" t="s">
@@ -41808,18 +41841,18 @@
         <f>VLOOKUP(B174,生产成本!D:K,8,0)*E174</f>
         <v>0</v>
       </c>
-      <c r="J174" s="12">
-        <f t="shared" si="15"/>
+      <c r="J174" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K174" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>174</v>
       </c>
       <c r="B175" s="12" t="s">
@@ -41843,18 +41876,18 @@
         <f>VLOOKUP(B175,生产成本!D:K,8,0)*E175</f>
         <v>0</v>
       </c>
-      <c r="J175" s="12">
-        <f t="shared" si="15"/>
+      <c r="J175" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K175" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>175</v>
       </c>
       <c r="B176" s="12" t="s">
@@ -41878,18 +41911,18 @@
         <f>VLOOKUP(B176,生产成本!D:K,8,0)*E176</f>
         <v>0</v>
       </c>
-      <c r="J176" s="12">
-        <f t="shared" si="15"/>
+      <c r="J176" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K176" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>176</v>
       </c>
       <c r="B177" s="12" t="s">
@@ -41913,18 +41946,18 @@
         <f>VLOOKUP(B177,生产成本!D:K,8,0)*E177</f>
         <v>0</v>
       </c>
-      <c r="J177" s="12">
-        <f t="shared" si="15"/>
+      <c r="J177" s="1">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K177" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>生产人工成本为0，无法计算</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -41954,17 +41987,17 @@
         <v>0</v>
       </c>
       <c r="J178" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K178" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -41994,17 +42027,17 @@
         <v>0</v>
       </c>
       <c r="J179" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K179" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -42034,17 +42067,17 @@
         <v>0</v>
       </c>
       <c r="J180" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K180" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -42067,24 +42100,24 @@
       <c r="G181" s="14"/>
       <c r="H181" s="1">
         <f>VLOOKUP(B181,生产成本!D:K,7,0)*E181</f>
-        <v>2910</v>
+        <v>2700</v>
       </c>
       <c r="I181" s="1">
         <f>VLOOKUP(B181,生产成本!D:K,8,0)*E181</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J181" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K181" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -42114,17 +42147,17 @@
         <v>0</v>
       </c>
       <c r="J182" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K182" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -42154,17 +42187,17 @@
         <v>0</v>
       </c>
       <c r="J183" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K183" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -42194,17 +42227,17 @@
         <v>0</v>
       </c>
       <c r="J184" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K184" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -42234,17 +42267,17 @@
         <v>0</v>
       </c>
       <c r="J185" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K185" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -42274,17 +42307,17 @@
         <v>0</v>
       </c>
       <c r="J186" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K186" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -42314,17 +42347,17 @@
         <v>0</v>
       </c>
       <c r="J187" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K187" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -42354,17 +42387,17 @@
         <v>0</v>
       </c>
       <c r="J188" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K188" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -42394,22 +42427,106 @@
         <v>0</v>
       </c>
       <c r="J189" s="1" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="K189" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="10">
+        <f t="shared" si="12"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C190" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="D190" s="1" t="str">
+        <f>VLOOKUP(C190,货币使用情况!A:B,2,0)</f>
+        <v>本币</v>
+      </c>
+      <c r="E190" s="39">
+        <v>10</v>
+      </c>
+      <c r="F190" s="1">
+        <v>25</v>
+      </c>
+      <c r="G190" s="1">
+        <f>IF(F190="","请填写实际价格(本币)，外币结算会自动计算",F190/汇率相关!$B$2)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H190" s="1">
+        <f>VLOOKUP(B190,生产成本!D:K,7,0)*E190</f>
+        <v>1292.5</v>
+      </c>
+      <c r="I190" s="1">
+        <f>VLOOKUP(B190,生产成本!D:K,8,0)*E190</f>
+        <v>0</v>
+      </c>
+      <c r="J190" s="1">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="K190" s="1">
+        <f t="shared" ref="K190:K191" si="14">IF(H190&lt;&gt;0,J190/H190,"生产人工成本为0，无法计算")</f>
+        <v>0.19342359767891681</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="10">
+        <f t="shared" si="12"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C191" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="D191" s="1" t="str">
+        <f>VLOOKUP(C191,货币使用情况!A:B,2,0)</f>
+        <v>本币</v>
+      </c>
+      <c r="E191" s="39">
+        <v>10</v>
+      </c>
+      <c r="F191" s="1">
+        <v>50</v>
+      </c>
+      <c r="G191" s="1">
+        <f>IF(F191="","请填写实际价格(本币)，外币结算会自动计算",F191/汇率相关!$B$2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H191" s="1">
+        <f>VLOOKUP(B191,生产成本!D:K,7,0)*E191</f>
+        <v>1392.5</v>
+      </c>
+      <c r="I191" s="1">
+        <f>VLOOKUP(B191,生产成本!D:K,8,0)*E191</f>
+        <v>0</v>
+      </c>
+      <c r="J191" s="1">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="K191" s="1">
+        <f t="shared" si="14"/>
+        <v>0.35906642728904847</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:K189" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:K191" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K189">
     <sortCondition ref="C2:C189"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D189">
+  <conditionalFormatting sqref="D2:D191">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"外币"</formula>
     </cfRule>
@@ -42426,9 +42543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I125" sqref="I125"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -43638,10 +43755,12 @@
       <c r="G39" s="1">
         <v>5</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="str">
+      <c r="H39" s="1">
+        <v>200</v>
+      </c>
+      <c r="I39" s="1">
         <f>IF(H39="","请填写实际价格(本币)，外币结算会自动计算",H39/汇率相关!$B$2)</f>
-        <v>请填写实际价格(本币)，外币结算会自动计算</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -48471,10 +48590,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -48603,6 +48722,14 @@
         <v>479</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
